--- a/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
+++ b/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
@@ -90,20 +90,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>泊位管理模块
-1.泊位增加类型：固定泊位/等候泊位。
-2.泊位添加排序号，用于编辑泊位排列顺序。
-设备发送指令
-1.去掉指令方法输入框；指令改为下拉框选择
-计划追加/添加模块
-1.计划添加/修改时等候泊位号改为下拉框选择
-2.计划添加/修改新增字段：司机联系方式</t>
-    <rPh sb="6" eb="7">
-      <t>yong h</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1 days</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -120,206 +106,6 @@
   </si>
   <si>
     <t>完成状态及说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">访问方式实现，部署联调（王强）
-历史查询
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">添加按供应商的查询条件。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">列表查询增加一列：计划完成状态
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">添加按计划完成状态的查询条件
-新泊位监控模块
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">界面展示、增加菜单按钮
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">点击固定泊位对计划进行操作
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计划顺延（往后顺延一个，若有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>booking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，则再顺延）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">计划修改（重新指定计划开始时间）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计划删除</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>xiang x</t>
-    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -668,12 +454,263 @@
     <t>16 days</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问方式实现，部署联调（王强）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+历史查询
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">添加按供应商的查询条件。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">列表查询增加一列：计划完成状态
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">添加按计划完成状态的查询条件
+新泊位监控模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">界面展示、增加菜单按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击固定泊位对计划进行操作
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划顺延（往后顺延一个，若有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>booking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，则再顺延）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">计划修改（重新指定计划开始时间）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划删除</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>xiang x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>泊位管理模块
+1.泊位增加类型：固定泊位/等候泊位。
+2.泊位添加排序号，用于编辑泊位排列顺序。
+设备发送指令
+1.去掉指令方法输入框；指令改为下拉框选择
+计划追加/添加模块
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划添加/修改时等候泊位号改为下拉框选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.计划添加/修改新增字段：司机联系方式</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>yong h</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +768,25 @@
     <font>
       <sz val="9"/>
       <color rgb="FF363636"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1101,7 +1157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1111,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1139,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1150,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3">
         <v>42930</v>
@@ -1160,7 +1216,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1168,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>42930</v>
@@ -1178,15 +1234,15 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="141" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>42930</v>
@@ -1196,15 +1252,15 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="170.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6">
         <v>42931</v>
@@ -1214,15 +1270,15 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="92.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6">
         <v>42933</v>
@@ -1232,15 +1288,15 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6">
         <v>42935</v>
@@ -1250,15 +1306,15 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="52.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6">
         <v>42935</v>
@@ -1268,7 +1324,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1276,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3">
         <v>42938</v>
@@ -1286,7 +1342,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1304,7 +1360,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1322,7 +1378,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1330,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>42943</v>
@@ -1340,7 +1396,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1348,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6">
         <v>42943</v>
@@ -1358,7 +1414,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1376,7 +1432,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1394,7 +1450,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1406,6 +1462,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
+++ b/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
@@ -1157,7 +1157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
+++ b/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
@@ -456,238 +456,23 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访问方式实现，部署联调（王强）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-历史查询
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">添加按供应商的查询条件。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">列表查询增加一列：计划完成状态
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">添加按计划完成状态的查询条件
-新泊位监控模块
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">界面展示、增加菜单按钮
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">点击固定泊位对计划进行操作
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计划顺延（往后顺延一个，若有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>booking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，则再顺延）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">计划修改（重新指定计划开始时间）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计划删除</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>xiang x</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>泊位管理模块
+      <t xml:space="preserve">泊位管理模块
 1.泊位增加类型：固定泊位/等候泊位。
 2.泊位添加排序号，用于编辑泊位排列顺序。
 设备发送指令
 1.去掉指令方法输入框；指令改为下拉框选择
 计划追加/添加模块
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计划添加/修改时等候泊位号改为下拉框选择</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.计划添加/修改时等候泊位号改为下拉框选择</t>
     </r>
     <r>
       <rPr>
@@ -702,6 +487,232 @@
     </r>
     <rPh sb="6" eb="7">
       <t>yong h</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问方式实现，部署联调（王强）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+历史查询
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">添加按供应商的查询条件。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">列表查询增加一列：计划完成状态
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加按计划完成状态的查询条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+新泊位监控模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">界面展示、增加菜单按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击固定泊位对计划进行操作
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划顺延（往后顺延一个，若有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>booking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，则再顺延）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">计划修改（重新指定计划开始时间）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划删除</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>xiang x</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -710,7 +721,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,12 +795,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1157,7 +1162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1168,7 +1173,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1239,7 +1244,7 @@
     </row>
     <row r="4" spans="1:6" ht="141" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -1257,7 +1262,7 @@
     </row>
     <row r="5" spans="1:6" ht="170.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>

--- a/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
+++ b/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
@@ -467,7 +467,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -574,7 +573,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -721,7 +719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +793,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1172,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
+++ b/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
@@ -493,7 +493,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -502,7 +501,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -588,13 +586,23 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-新泊位监控模块
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新泊位监控模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -603,7 +611,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -614,7 +622,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -623,7 +631,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -634,7 +642,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -643,7 +651,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -653,7 +661,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -662,7 +670,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -673,7 +681,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -682,7 +690,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -693,7 +701,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -702,7 +710,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -719,7 +727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +791,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -794,14 +813,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,6 +830,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -892,6 +911,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1247,7 +1272,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="141" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1283,7 +1308,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="92.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1301,7 +1326,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="90.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1319,7 +1344,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">

--- a/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
+++ b/项目资料/泊位管理系统/泊位管理系统—工作内容计划安排及完成情况.xlsx
@@ -591,7 +591,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -602,7 +601,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -611,7 +609,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -622,7 +619,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -631,7 +627,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -642,7 +637,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -651,7 +645,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -661,7 +654,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -670,7 +662,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -681,7 +672,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -690,7 +680,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -701,7 +690,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -710,7 +698,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -727,7 +714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,19 +784,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1191,7 +1165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1201,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1290,7 +1264,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="170.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1380,7 +1354,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1398,7 +1372,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
